--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/bankCard/BankCardFirstRealName.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/bankCard/BankCardFirstRealName.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="3200" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pictureVerification</t>
   </si>
   <si>
@@ -113,10 +109,6 @@
     <t>environment</t>
   </si>
   <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>blackBox</t>
   </si>
   <si>
@@ -612,6 +604,14 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,15 +964,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -991,49 +991,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
       </c>
       <c r="Q1" t="s">
         <v>2</v>
@@ -1044,52 +1044,52 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N2" s="1">
         <v>111</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
         <v>6</v>
@@ -1097,52 +1097,52 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N3" s="1">
         <v>111</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
         <v>6</v>
@@ -1150,52 +1150,52 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N4" s="1">
         <v>111</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>6</v>
@@ -1203,52 +1203,52 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N5" s="1">
         <v>111</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
         <v>6</v>
@@ -1256,52 +1256,52 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N6" s="1">
         <v>111</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
         <v>6</v>
@@ -1309,52 +1309,52 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N7" s="1">
         <v>111</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R7" t="s">
         <v>6</v>
@@ -1362,52 +1362,52 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N8" s="1">
         <v>111</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
         <v>6</v>
@@ -1415,52 +1415,52 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N9" s="1">
         <v>111</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
         <v>6</v>
@@ -1468,52 +1468,52 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N10" s="1">
         <v>111</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
         <v>6</v>
@@ -1524,49 +1524,49 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N11" s="1">
         <v>111</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
         <v>6</v>
@@ -1577,49 +1577,49 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N12" s="1">
         <v>111</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R12" t="s">
         <v>6</v>
@@ -1630,49 +1630,49 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N13" s="1">
         <v>111</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
         <v>6</v>
@@ -1683,49 +1683,49 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N14" s="1">
         <v>111</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R14" t="s">
         <v>6</v>
@@ -1736,49 +1736,49 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N15" s="1">
         <v>111</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R15" t="s">
         <v>6</v>
@@ -1789,49 +1789,49 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N16" s="1">
         <v>111</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R16" t="s">
         <v>6</v>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/bankCard/BankCardFirstRealName.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/bankCard/BankCardFirstRealName.xlsx
@@ -143,13 +143,6 @@
     <t>testcaseDescription</t>
   </si>
   <si>
-    <t>绑卡</t>
-    <rPh sb="0" eb="1">
-      <t>bagn'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绑卡-中国银行</t>
     <rPh sb="0" eb="1">
       <t>bagn'k</t>
@@ -612,6 +605,22 @@
   </si>
   <si>
     <t>${EnvUtils.getEnv()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先实名后绑卡</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bagn'k</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +974,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1044,19 +1053,19 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -1068,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>28</v>
@@ -1097,19 +1106,19 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
@@ -1121,10 +1130,10 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
@@ -1150,19 +1159,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
@@ -1174,10 +1183,10 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>17</v>
@@ -1203,19 +1212,19 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
@@ -1227,10 +1236,10 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
@@ -1256,19 +1265,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
@@ -1280,10 +1289,10 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
@@ -1309,19 +1318,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
@@ -1333,10 +1342,10 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>17</v>
@@ -1362,19 +1371,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
@@ -1386,10 +1395,10 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -1415,19 +1424,19 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
@@ -1439,10 +1448,10 @@
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>17</v>
@@ -1468,19 +1477,19 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
@@ -1492,10 +1501,10 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
@@ -1524,16 +1533,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
@@ -1545,10 +1554,10 @@
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
@@ -1577,16 +1586,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
@@ -1598,10 +1607,10 @@
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>17</v>
@@ -1630,16 +1639,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
@@ -1651,10 +1660,10 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>17</v>
@@ -1683,16 +1692,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
@@ -1704,10 +1713,10 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>17</v>
@@ -1736,16 +1745,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
@@ -1757,10 +1766,10 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>17</v>
@@ -1789,16 +1798,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>26</v>
@@ -1810,10 +1819,10 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>17</v>
